--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MilovanHolsteijn\Desktop\xltrail_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1563C3FF-3A16-4135-B17A-2207C4B715C0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821A2998-B2BF-4C36-9B31-2F592193941C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="11445" xr2:uid="{03DD29F1-EBF4-4642-AAF2-674703FD9271}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="11445" activeTab="1" xr2:uid="{03DD29F1-EBF4-4642-AAF2-674703FD9271}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,6 +28,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Picnic Test</t>
+  </si>
+  <si>
+    <t>Test Sheet 2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,12 +389,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E856CC-35EF-4299-8CE1-2660937E56D9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771E2166-AB19-4DAB-A537-479E47A24B5B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>